--- a/Tache.xlsx
+++ b/Tache.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\food_ordering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF910B1-EA4B-4C43-B71C-447D632076C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6958B36-3235-42A9-96D2-C00330050309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1850" windowWidth="25820" windowHeight="13900" xr2:uid="{D17107C9-135A-45CE-B811-3379BC7443A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D17107C9-135A-45CE-B811-3379BC7443A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>Créer une page serveur qui recevra les commandes "terminées" et qui les renverrai vers les tables pour les servir</t>
   </si>
@@ -47,12 +47,6 @@
     <t>enlever food original price</t>
   </si>
   <si>
-    <t>Création dune page d'accueil admin pour que tout le monde y est OP</t>
-  </si>
-  <si>
-    <t>Vérifier la page vitrine</t>
-  </si>
-  <si>
     <t>A voir pour suivre ma commande (mot de passe, création de compte, etc.)????</t>
   </si>
   <si>
@@ -65,16 +59,91 @@
     <t>Etat</t>
   </si>
   <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>A réfléchir</t>
+  </si>
+  <si>
+    <t>Vérifier la page vitrine, vois s'il y a une pour serveur et une pour client</t>
+  </si>
+  <si>
+    <t>Création d'une page d'accueil admin pour que tout le monde y est OP</t>
+  </si>
+  <si>
+    <t>Créer un menu uniquement pour les serveurs, qui auront accès à cuisine, order, et leur menu perso, comprenant deux pages, une pour bpouvoir commander et la suite, et l'autre pour recevoir une notification quand une commande est prete a etre envoyer à table</t>
+  </si>
+  <si>
+    <t>Le temps</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>Téléchargement automatique de la commande</t>
+  </si>
+  <si>
+    <t>Fait</t>
+  </si>
+  <si>
     <t>A faire</t>
   </si>
   <si>
-    <t>Niveau</t>
-  </si>
-  <si>
-    <t>Urgent</t>
-  </si>
-  <si>
-    <t>A réfléchir</t>
+    <t>Prochaine fois</t>
+  </si>
+  <si>
+    <t>rajouter une case pour pouvoir marquer des commentaires dans food_description sur quelque chose de libre</t>
+  </si>
+  <si>
+    <t>numéro de commande uniquement et non nom + commande uniquement</t>
+  </si>
+  <si>
+    <t>filtre recette générée</t>
+  </si>
+  <si>
+    <t>Acceptation des accents</t>
+  </si>
+  <si>
+    <t>vérifier l'ajout de plat</t>
+  </si>
+  <si>
+    <t>vérifier dispay_food, edit_food</t>
+  </si>
+  <si>
+    <t>prix cuisine en trop, paiement</t>
+  </si>
+  <si>
+    <t>mettre cuisine et non kitchen_orders</t>
+  </si>
+  <si>
+    <t>paiement avant si distance sinon après</t>
+  </si>
+  <si>
+    <t>voir la page delete_food_permanently parce qu'elle ne marche pas</t>
+  </si>
+  <si>
+    <t>Voir aws pour pouvoir gérer le backend</t>
+  </si>
+  <si>
+    <t>Voir pour intégrer aws au niveau de notre projet</t>
+  </si>
+  <si>
+    <t>ajuster téléphone aussi pour que ca soit logique</t>
+  </si>
+  <si>
+    <t>normalement hébergement et plupart des services gratuit pdt 1 ans</t>
+  </si>
+  <si>
+    <t>ID restaurant</t>
+  </si>
+  <si>
+    <t>Se pencher sale au niveau de la sécurité</t>
+  </si>
+  <si>
+    <t>Adapter la page view_carte pour pouvoir tout voir</t>
   </si>
 </sst>
 </file>
@@ -446,96 +515,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D09FA57-B27C-4B54-875C-24B89AD52EE7}">
-  <dimension ref="A1:C7"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="107.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7" xr:uid="{9D09FA57-B27C-4B54-875C-24B89AD52EE7}"/>
+  <autoFilter ref="A1:C22" xr:uid="{9D09FA57-B27C-4B54-875C-24B89AD52EE7}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="A faire"/>
+        <filter val="A réfléchir"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tache.xlsx
+++ b/Tache.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\food_ordering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6958B36-3235-42A9-96D2-C00330050309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D713145B-A0BD-4835-812B-06A63DAB1F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D17107C9-135A-45CE-B811-3379BC7443A5}"/>
   </bookViews>
@@ -143,7 +143,7 @@
     <t>Se pencher sale au niveau de la sécurité</t>
   </si>
   <si>
-    <t>Adapter la page view_carte pour pouvoir tout voir</t>
+    <t>Adapter la page view_carte pour pouvoir tout voir (faire comme la page checkout)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
